--- a/datamining/final_data/sorted1993_nltk.xlsx
+++ b/datamining/final_data/sorted1993_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMQ2"/>
+  <dimension ref="A1:AKY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,24 +452,24 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>thinking</t>
@@ -477,14 +477,14 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>parents</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>topically</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>parents</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>high</t>
@@ -492,59 +492,59 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>celebration</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>reviewers</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>mathematically</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>celebration</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>reviewers</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>achievers</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>prodigies</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>mainstream</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>metacognition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>mainstream</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>achievers</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>prodigies</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
           <t>career</t>
@@ -552,72 +552,72 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>research</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>instruments</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>underachievers</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>underachievers</t>
+          <t>courses</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>divergent</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>courses</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>student</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>divergent</t>
+          <t>early</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -627,77 +627,77 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>program</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>11-years-of-age</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>cancer</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radford</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>french</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
           <t>intelligence</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>fromentsavoie</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>among</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>preschoolers</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -707,32 +707,32 @@
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>preschoolers</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>self-efficacy</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>self-efficacy</t>
+          <t>together</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>radford</t>
+          <t>aptitudes</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>aptitudes</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
@@ -742,67 +742,67 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>using</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>work</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>success</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>heacox</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>fromentsavoie</t>
+          <t>promote</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>11-years-of-age</t>
+          <t>level</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>education</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>cancer</t>
+          <t>reasoning</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>french</t>
+          <t>strengths</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>study</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>test</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
@@ -812,142 +812,142 @@
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>strengths</t>
+          <t>also</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>reasoning</t>
+          <t>group</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>elimination</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>elimination</t>
+          <t>creative-thinking</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>museums</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>social</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>minds</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>survival</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>minds</t>
+          <t>motion</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
+          <t>gartenhaus</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
           <t>expand</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>gartenhaus</t>
+          <t>years</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>motion</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>creative-thinking</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>form</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>museums</t>
+          <t>use</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>walker</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>live</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>sy</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>stick</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
@@ -957,1467 +957,1467 @@
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>kids</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>judged</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>effects</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>specific</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>achievement</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
           <t>leisure</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>judged</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>achievement</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>significant</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>evaluation</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>groups</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>prodigy</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>underachievement</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>specific</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>evaluation</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>purpose</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>promote</t>
+          <t>investigations</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
+          <t>identified</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>development</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>development</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>investigations</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>identified</t>
-        </is>
-      </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>set</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>survival</t>
+          <t>average</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>heacox</t>
+          <t>efficacy</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>creative/productive</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>efficacy</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>fifth</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>practical</t>
+          <t>interpeer</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>college</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>ssat-l</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>agreement</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>different</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>creative/productive</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>important</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>fifth</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>stick</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>''</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>resources</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>university</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>walker</t>
+          <t>``</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>sy</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>kids</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>ssat-l</t>
+          <t>cty</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>general</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>solvers</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>cty</t>
+          <t>mr</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>interpeer</t>
+          <t>guidebook</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>''</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>agreement</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>related</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>resources</t>
+          <t>templates</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>sortore</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>samples</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>ratios</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>tallman</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>expectations</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>forms</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>expectations</t>
+          <t>reproducible</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
+          <t>dj</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>treffinger</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>classes</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
           <t>'s</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>interviews</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>treffinger</t>
-        </is>
-      </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>eighth-grade</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>dj</t>
+          <t>value</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>reproducible</t>
+          <t>served</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>mr</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ratings</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>guidebook</t>
+          <t>residential</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>solvers</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>sortore</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>tallman</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>edition</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>templates</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>ratings</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>eighth-grade</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>window</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>residential</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>four</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>ratios</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>may</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>samples</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>forms</t>
+          <t>reviewed</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>window</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>served</t>
+          <t>data</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>distinct</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>physical</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>edition</t>
+          <t>stanford-binet</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>aptitude</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>focuses</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>national</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>two</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>secondary</t>
+          <t>according</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>reviewed</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>current</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>six</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>considered</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>distinct</t>
+          <t>less</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>extremely</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>language</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>aptitude</t>
+          <t>literacy</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>months</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>physical</t>
+          <t>reader</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>based</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>specifically</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>task</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>many</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>stanford-binet</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>focuses</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>order</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>presents</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>visual-spatial</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>vital</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
           <t>wisc-r</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>visual-spatial</t>
-        </is>
-      </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>nonverbal</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>compared</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>admission</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>sequential</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>nonverbal</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>writing</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>compared</t>
-        </is>
-      </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>reader</t>
-        </is>
-      </c>
-      <c r="JA1" s="1" t="inlineStr">
-        <is>
-          <t>relationships</t>
-        </is>
-      </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>months</t>
+          <t>much</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>remaining</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>prototype</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>young</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>according</t>
+          <t>represent</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>contributed</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>roles</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>extremely</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>literacy</t>
+          <t>interpersonal</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>represent</t>
+          <t>large</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>socio-affective</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>roles</t>
+          <t>able</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>artistic</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>remaining</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>contributed</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>grade-point</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>defined</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>selection</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>act</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>vital</t>
+          <t>number</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>reporting</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>socio-affective</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>interpersonal</t>
+          <t>investment</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>artistic</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>act</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>proposed</t>
+          <t>report</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>low</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>challenging</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>last</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>investment</t>
+          <t>special</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>interpreted</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>interviewed</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>reporting</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>fluency</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>grade-point</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>careers</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>defined</t>
+          <t>varying</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>male</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>honors</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>serious</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>sex-balanced</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>challenging</t>
+          <t>female</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>behavioral</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>determine</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>occupations</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
           <t>reported</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>solving</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>increased</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>honors</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>fluency</t>
-        </is>
-      </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>process</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>varying</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>junior</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>small</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>iqs</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>interviewed</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>behavioral</t>
+          <t>well</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>interpreted</t>
+          <t>first</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>serious</t>
+          <t>domains</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>120</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>junior</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>skipped</t>
+          <t>various</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>future</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>words</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>occupations</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>sex-balanced</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>consideration</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>divisions</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>faced</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>include</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>problematic</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>iqs</t>
+          <t>screen</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>tel-aviv</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
+          <t>segii</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>frequently</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
           <t>adolescents</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>consideration</t>
-        </is>
-      </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>tel-aviv</t>
+          <t>population</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>decision-makers</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>domains</t>
+          <t>psychometric</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>likelihood</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>provide</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>although</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>must</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>divisions</t>
-        </is>
-      </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>age</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>nomination</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>problematic</t>
+          <t>every</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>screen</t>
+          <t>equally</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>administered</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>faced</t>
+          <t>distributed</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>descriptions</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>computed</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>segii</t>
+          <t>technical</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>decision-makers</t>
+          <t>three</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
           <t>often</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>words</t>
-        </is>
-      </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>document</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>secondary-school</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>productivity</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>frequently</t>
+          <t>projects</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>learned</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
@@ -2427,3162 +2427,2942 @@
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>family</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>psychometric</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
+          <t>youths</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaires</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>reflecting</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>respective</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
           <t>combining</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>youths</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>studying</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>insights</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>included</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>imagination</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>upon</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>studying</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>likelihood</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>secondary-school</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>respective</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>reflecting</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaires</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>projects</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>insights</t>
-        </is>
-      </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>imagination</t>
+          <t>nearly</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>productivity</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>document</t>
+          <t>iowa</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>including</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>range</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>indicating</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>learned</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>quantitative</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>obtained</t>
+          <t>least</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>equally</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>sections</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>seventh</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>ssat</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>comparisons</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>graders</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>took</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>usefulness</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>texas</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>entire</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>presented</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>judges</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>usefulness</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>took</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>ssat</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>texas</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>seventh</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>sections</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>effectively</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>administered</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>computed</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>possible</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>technical</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>schools</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>presented</t>
-        </is>
-      </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>items</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>nomination</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>judges</t>
+          <t>covered</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>every</t>
+          <t>connections</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>field</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>position</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>distributed</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>descriptions</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>moving</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>play</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>quantitative</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>reflections</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>nearly</t>
+          <t>journals</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>comprehension</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>covered</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>ignored</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>entire</t>
+          <t>call</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>graders</t>
+          <t>scant</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>overcoming</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>inconclusive</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>indicating</t>
+          <t>avenues</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>iowa</t>
+          <t>take</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>unparalleled</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>barriers</t>
+          <t>want</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>connections</t>
+          <t>19</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>without</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>ignored</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>49</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>achieve</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>additional</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>journals</t>
+          <t>instructions</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>beginning</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>reflections</t>
+          <t>sweep</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>items</t>
+          <t>decline</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>moving</t>
+          <t>disengage</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>scant</t>
+          <t>divisiveness</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>eliminated</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>measure</t>
+          <t>experiencing</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>half</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>overcoming</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>paid</t>
+          <t>mail</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>participating</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>keep</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>swelling</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
           <t>restructuring</t>
         </is>
       </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>then</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>swelling</t>
+          <t>triangulate</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>sweep</t>
+          <t>collaboration</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
+          <t>integrative</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>inclusion</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>giving</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>emerge</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>educators</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>dialogue</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>conversants</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>concerns</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>concepts</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>community</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
           <t>reform</t>
         </is>
       </c>
-      <c r="SK1" s="1" t="inlineStr">
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>champions</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
         <is>
           <t>cause</t>
         </is>
       </c>
-      <c r="SL1" s="1" t="inlineStr">
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>advantage</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>administrators</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>accepted</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>leaders</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>movements</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>personnel</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
         <is>
           <t>productive</t>
         </is>
       </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>accepted</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>unparalleled</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>administrators</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>champions</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>advantage</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>experiencing</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>without</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>eliminated</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>half</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>mail</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>participating</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>surveys</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
         <is>
           <t>resulted</t>
         </is>
       </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>surveys</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>triangulate</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>divisiveness</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>disengage</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>decline</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>dialogue</t>
-        </is>
-      </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
+          <t>1970s</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>plans</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>provides</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>shown</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>summarizes</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>curricula</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>perform</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>empirical-research</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>critiques</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>appears</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>accelerating</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>1980s</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>enriched</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>technology-based</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>organizational</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>non-computer-based</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>efficacious</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
           <t>older</t>
         </is>
       </c>
-      <c r="TM1" s="1" t="inlineStr">
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>long-term</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
         <is>
           <t>offer</t>
         </is>
       </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>non-computer-based</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>long-term</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>instructions</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>educators</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>inconclusive</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>emerge</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>enriched</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>empirical-research</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>efficacious</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>curricula</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>critiques</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>appears</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>accelerating</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>1980s</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>1970s</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>achieve</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>giving</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>inclusion</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>organizational</t>
-        </is>
-      </c>
       <c r="UK1" s="1" t="inlineStr">
         <is>
-          <t>perform</t>
+          <t>action</t>
         </is>
       </c>
       <c r="UL1" s="1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>within</t>
         </is>
       </c>
       <c r="UM1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="UN1" s="1" t="inlineStr">
         <is>
-          <t>collaboration</t>
+          <t>city</t>
         </is>
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>l-m</t>
         </is>
       </c>
       <c r="UP1" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>recognition</t>
         </is>
       </c>
       <c r="UQ1" s="1" t="inlineStr">
         <is>
-          <t>beginning</t>
+          <t>late</t>
         </is>
       </c>
       <c r="UR1" s="1" t="inlineStr">
         <is>
-          <t>concepts</t>
+          <t>70</t>
         </is>
       </c>
       <c r="US1" s="1" t="inlineStr">
         <is>
-          <t>personnel</t>
+          <t>354</t>
         </is>
       </c>
       <c r="UT1" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>clear-cut</t>
         </is>
       </c>
       <c r="UU1" s="1" t="inlineStr">
         <is>
-          <t>movements</t>
+          <t>72</t>
         </is>
       </c>
       <c r="UV1" s="1" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>letter-sound</t>
         </is>
       </c>
       <c r="UW1" s="1" t="inlineStr">
         <is>
-          <t>avenues</t>
+          <t>fourth</t>
         </is>
       </c>
       <c r="UX1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>midwestern</t>
         </is>
       </c>
       <c r="UY1" s="1" t="inlineStr">
         <is>
-          <t>leaders</t>
+          <t>understood</t>
         </is>
       </c>
       <c r="UZ1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>hundred</t>
         </is>
       </c>
       <c r="VA1" s="1" t="inlineStr">
         <is>
-          <t>plans</t>
+          <t>trends</t>
         </is>
       </c>
       <c r="VB1" s="1" t="inlineStr">
         <is>
-          <t>keep</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="VC1" s="1" t="inlineStr">
         <is>
-          <t>conversants</t>
+          <t>conceptions</t>
         </is>
       </c>
       <c r="VD1" s="1" t="inlineStr">
         <is>
-          <t>integrative</t>
+          <t>pseudowords</t>
         </is>
       </c>
       <c r="VE1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>theories</t>
         </is>
       </c>
       <c r="VF1" s="1" t="inlineStr">
         <is>
-          <t>additional</t>
+          <t>hypotheses</t>
         </is>
       </c>
       <c r="VG1" s="1" t="inlineStr">
         <is>
-          <t>technology-based</t>
+          <t>oral</t>
         </is>
       </c>
       <c r="VH1" s="1" t="inlineStr">
         <is>
-          <t>summarizes</t>
+          <t>old</t>
         </is>
       </c>
       <c r="VI1" s="1" t="inlineStr">
         <is>
-          <t>shown</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="VJ1" s="1" t="inlineStr">
         <is>
-          <t>providing</t>
+          <t>occurs</t>
         </is>
       </c>
       <c r="VK1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>arguing</t>
         </is>
       </c>
       <c r="VL1" s="1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="VM1" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>unresolved</t>
         </is>
       </c>
       <c r="VN1" s="1" t="inlineStr">
         <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>emergence</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>documents</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>correspondences</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>conservatively</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>comparable</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>ages</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>first-grade</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>generate</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>premise</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>points</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>suggestions</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>phenomenon</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>maximize</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>theorists</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>movement</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>attempt</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>relations</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>significance</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>concluded</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>conclusive</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>ninety-six</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>slosson</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>savant</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>tends</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>domain-specific</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>syndrome</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>explaining</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>sense</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>specialized</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>along</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>changing</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>examination</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
           <t>distinctive</t>
         </is>
       </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>evolutionary</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
         <is>
           <t>offers</t>
         </is>
       </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>finally</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>sound</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>expression</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>seeking</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>unfamiliar</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>estimated</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
         <is>
           <t>issues</t>
         </is>
       </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
+      <c r="YC1" s="1" t="inlineStr">
         <is>
           <t>linking</t>
         </is>
       </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>made</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>search</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>explaining</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>specialized</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>slosson</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>significantly</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>seeking</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>ninety-six</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>explored</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>examination</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>l-m</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>syndrome</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>understood</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>trends</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>theories</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>arguing</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>terms</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>tends</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>attempt</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>clear-cut</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>conceptions</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>concluded</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>conclusive</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>context</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>rather</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>midwestern</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>significance</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>hundred</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>354</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>changing</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>continue</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>expression</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>unresolved</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>fourth</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>evolutionary</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>theorists</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>theoretical</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>suggestions</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>e.g.</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>domain-specific</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>maximize</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>within</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>phenomenon</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>points</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>premise</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
       <c r="YD1" s="1" t="inlineStr">
         <is>
-          <t>sense</t>
+          <t>excelled</t>
         </is>
       </c>
       <c r="YE1" s="1" t="inlineStr">
         <is>
-          <t>savant</t>
+          <t>appear</t>
         </is>
       </c>
       <c r="YF1" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="YG1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="YH1" s="1" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>idiographic</t>
         </is>
       </c>
       <c r="YI1" s="1" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="YJ1" s="1" t="inlineStr">
         <is>
-          <t>occurs</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="YK1" s="1" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>scatter</t>
         </is>
       </c>
       <c r="YL1" s="1" t="inlineStr">
         <is>
-          <t>correspondences</t>
+          <t>456</t>
         </is>
       </c>
       <c r="YM1" s="1" t="inlineStr">
         <is>
-          <t>degree</t>
+          <t>simultaneous</t>
         </is>
       </c>
       <c r="YN1" s="1" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="YO1" s="1" t="inlineStr">
         <is>
-          <t>emergence</t>
+          <t>visual-motor</t>
         </is>
       </c>
       <c r="YP1" s="1" t="inlineStr">
         <is>
-          <t>estimated</t>
+          <t>verbal-performance</t>
         </is>
       </c>
       <c r="YQ1" s="1" t="inlineStr">
         <is>
-          <t>first-grade</t>
+          <t>varied</t>
         </is>
       </c>
       <c r="YR1" s="1" t="inlineStr">
         <is>
-          <t>generate</t>
+          <t>iq</t>
         </is>
       </c>
       <c r="YS1" s="1" t="inlineStr">
         <is>
-          <t>hypotheses</t>
+          <t>variability</t>
         </is>
       </c>
       <c r="YT1" s="1" t="inlineStr">
         <is>
-          <t>letter-sound</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="YU1" s="1" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>coordination</t>
         </is>
       </c>
       <c r="YV1" s="1" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>subtest</t>
         </is>
       </c>
       <c r="YW1" s="1" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>subgroups</t>
         </is>
       </c>
       <c r="YX1" s="1" t="inlineStr">
         <is>
-          <t>visual-motor</t>
+          <t>discrepancy</t>
         </is>
       </c>
       <c r="YY1" s="1" t="inlineStr">
         <is>
-          <t>verbal-performance</t>
+          <t>span</t>
         </is>
       </c>
       <c r="YZ1" s="1" t="inlineStr">
         <is>
-          <t>varied</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="ZA1" s="1" t="inlineStr">
         <is>
-          <t>variability</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="ZB1" s="1" t="inlineStr">
         <is>
-          <t>superior</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="ZC1" s="1" t="inlineStr">
         <is>
-          <t>subtest</t>
+          <t>valuation</t>
         </is>
       </c>
       <c r="ZD1" s="1" t="inlineStr">
         <is>
-          <t>subgroups</t>
+          <t>difficulties</t>
         </is>
       </c>
       <c r="ZE1" s="1" t="inlineStr">
         <is>
-          <t>span</t>
+          <t>throughout</t>
         </is>
       </c>
       <c r="ZF1" s="1" t="inlineStr">
         <is>
-          <t>simultaneous</t>
+          <t>conclusion</t>
         </is>
       </c>
       <c r="ZG1" s="1" t="inlineStr">
         <is>
-          <t>scatter</t>
+          <t>dramatically</t>
         </is>
       </c>
       <c r="ZH1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>relying</t>
         </is>
       </c>
       <c r="ZI1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>directions</t>
         </is>
       </c>
       <c r="ZJ1" s="1" t="inlineStr">
         <is>
-          <t>comparable</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="ZK1" s="1" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="ZL1" s="1" t="inlineStr">
         <is>
-          <t>oral</t>
+          <t>define</t>
         </is>
       </c>
       <c r="ZM1" s="1" t="inlineStr">
         <is>
-          <t>idiographic</t>
+          <t>considerations</t>
         </is>
       </c>
       <c r="ZN1" s="1" t="inlineStr">
         <is>
-          <t>excelled</t>
+          <t>coefficients</t>
         </is>
       </c>
       <c r="ZO1" s="1" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>sync</t>
         </is>
       </c>
       <c r="ZP1" s="1" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>changed</t>
         </is>
       </c>
       <c r="ZQ1" s="1" t="inlineStr">
         <is>
-          <t>appear</t>
+          <t>beliefs</t>
         </is>
       </c>
       <c r="ZR1" s="1" t="inlineStr">
         <is>
-          <t>analyzed</t>
+          <t>several</t>
         </is>
       </c>
       <c r="ZS1" s="1" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="ZT1" s="1" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>worth</t>
         </is>
       </c>
       <c r="ZU1" s="1" t="inlineStr">
         <is>
-          <t>unfamiliar</t>
+          <t>view</t>
         </is>
       </c>
       <c r="ZV1" s="1" t="inlineStr">
         <is>
-          <t>sound</t>
+          <t>time</t>
         </is>
       </c>
       <c r="ZW1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>behavioral-adjustment</t>
         </is>
       </c>
       <c r="ZX1" s="1" t="inlineStr">
         <is>
-          <t>recognition</t>
+          <t>either</t>
         </is>
       </c>
       <c r="ZY1" s="1" t="inlineStr">
         <is>
-          <t>pseudowords</t>
+          <t>enhancement</t>
         </is>
       </c>
       <c r="ZZ1" s="1" t="inlineStr">
         <is>
-          <t>conservatively</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="AAA1" s="1" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>pools</t>
         </is>
       </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>played</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
-          <t>begin</t>
+          <t>past</t>
         </is>
       </c>
       <c r="AAD1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>output</t>
         </is>
       </c>
       <c r="AAE1" s="1" t="inlineStr">
         <is>
-          <t>ages</t>
+          <t>outlined</t>
         </is>
       </c>
       <c r="AAF1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>noted</t>
         </is>
       </c>
       <c r="AAG1" s="1" t="inlineStr">
         <is>
-          <t>sync</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AAH1" s="1" t="inlineStr">
         <is>
+          <t>moderately</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>involving</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>ideational</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>ideation</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>facet</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>examinees</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>really</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>showing</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>styles</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>ingels</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>fewer</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>initially</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>idea</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>fruition</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>described</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>convince</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>al.</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>combination</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>bring</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>though</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>thought</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>held</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>predictive</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>interactively</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>technologies</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>metaphorically</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>specificity</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>enrolled</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>seem</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>propose</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>personality</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>novel</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>standards</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>stringent</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>techniques</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>intercorrelations</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>isolation</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>academic-achievement</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>differ</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>statistics</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>tended</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>unusual</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>caucasian</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>30,604</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>95th</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>accomplishments</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>modest</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>powerful</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>predictor</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>quite</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>realize</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>self-reported</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>studied</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
           <t>prototypes</t>
         </is>
       </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>paired</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>k-7</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>nominating</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>american</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>compare</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>interval</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>earlier</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>enrolling</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>enroll</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>seniors</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>eligible</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>1980-1984</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>composite</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>attend</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>5-year</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>accompanying</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>exemplified</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>percentile</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>out-of-class</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>nonacademic</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>n=30,347</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>n=257</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>measured</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>males</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>less-than-or-equal-to</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>hopkins</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>juniors</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>greater-than-or-equal-to</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>johns</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>matched</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>extensive</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>maintained</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>commonly</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>manifested</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>nces</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>pnfs</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>pnf</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>nels</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>overrepresentation</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>nine</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>judgments</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>came</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>independently</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>exceeded</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>emerged</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>indices</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrate</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>regardless</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>reproducibility</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>rigorous</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>scholastic</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>sex-differences</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
         <is>
           <t>prototypical</t>
         </is>
       </c>
-      <c r="AAK1" s="1" t="inlineStr">
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>socioaffective</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>tear-hers</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
         <is>
           <t>sexes</t>
         </is>
       </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>validate</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>taking</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
         <is>
           <t>variations</t>
         </is>
       </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>themselves</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>validate</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>worth</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>styles</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
+      <c r="AGA1" s="1" t="inlineStr">
         <is>
           <t>worst</t>
         </is>
       </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>view</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>changed</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>aspects</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>finished</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>caucasian</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>coefficients</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>conclusion</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>considerations</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>define</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>directions</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>dramatically</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>enhancement</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>examinees</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
+      <c r="AGB1" s="1" t="inlineStr">
         <is>
           <t>written</t>
         </is>
       </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>personality</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>interaction</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>interactively</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>n=30,347</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>hopkins</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>metaphorically</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>move</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>multivariate</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>next</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>novel</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>seniors</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>ideation</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>propose</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>percentile</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>1980-1984</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>nonacademic</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>5-year</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>seem</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>accompanying</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>accomplishments</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>95th</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>facet</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>involving</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>ideational</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>validation</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>cases</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>differential</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
+        <is>
+          <t>arts</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>acceptable</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>foremost</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>fields</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>divided</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>depends</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>profound</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>counterbalanced</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>consensus</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>confirming</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>pursuing</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>associated</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
         <is>
           <t>agree</t>
         </is>
       </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>really</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>acceptable</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>contrary</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>exemplified</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>accurately</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>ablest</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
         <is>
           <t>3-week</t>
         </is>
       </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>relying</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaire</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
         <is>
           <t>2350</t>
         </is>
       </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>earlier</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>eligible</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>several</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>enroll</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>enrolling</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>showing</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>valuation</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>throughout</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>thought</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>though</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>standards</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>technologies</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>stringent</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>techniques</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>out-of-class</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>board</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>assessed</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>predictive</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>paired</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>observed</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>nominating</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>maintained</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>interval</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>30,604</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>moderately</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>attend</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>indices</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>foremost</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>noted</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>fields</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>outlined</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>divided</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>depends</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>counterbalanced</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>consensus</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>played</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>pools</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>confirming</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>associated</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>initially</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>predictor</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>juniors</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>pursuing</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaire</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>greater-than-or-equal-to</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>rigorous</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>scholastic</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>taking</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>measured</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>males</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>validation</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>realize</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>academic-achievement</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>quite</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>powerful</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>differ</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>idea</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>need</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>modest</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>enable</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>less-than-or-equal-to</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
+      <c r="AHH1" s="1" t="inlineStr">
         <is>
           <t>influence</t>
         </is>
       </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>compare</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>combination</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>placement</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>convince</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>n=257</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>bring</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>described</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>composite</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>johns</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>outside</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>fruition</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>accurately</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>ablest</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>rated</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>responded</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>scored</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>previously</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>originality</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>middle</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>independent</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>increases</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
+          <t>hypothetical</t>
+        </is>
+      </c>
+      <c r="AHS1" s="1" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="AHT1" s="1" t="inlineStr">
+        <is>
+          <t>gains</t>
+        </is>
+      </c>
+      <c r="AHU1" s="1" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="AHV1" s="1" t="inlineStr">
+        <is>
+          <t>lives</t>
+        </is>
+      </c>
+      <c r="AHW1" s="1" t="inlineStr">
+        <is>
+          <t>making</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="AHY1" s="1" t="inlineStr">
+        <is>
+          <t>participate</t>
+        </is>
+      </c>
+      <c r="AHZ1" s="1" t="inlineStr">
+        <is>
+          <t>phenomenology</t>
+        </is>
+      </c>
+      <c r="AIA1" s="1" t="inlineStr">
+        <is>
+          <t>principles</t>
+        </is>
+      </c>
+      <c r="AIB1" s="1" t="inlineStr">
+        <is>
+          <t>purdue</t>
+        </is>
+      </c>
+      <c r="AIC1" s="1" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="AID1" s="1" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="AIE1" s="1" t="inlineStr">
+        <is>
+          <t>flexibility</t>
+        </is>
+      </c>
+      <c r="AIF1" s="1" t="inlineStr">
+        <is>
+          <t>since</t>
+        </is>
+      </c>
+      <c r="AIG1" s="1" t="inlineStr">
+        <is>
+          <t>something</t>
+        </is>
+      </c>
+      <c r="AIH1" s="1" t="inlineStr">
+        <is>
+          <t>stood</t>
+        </is>
+      </c>
+      <c r="AII1" s="1" t="inlineStr">
+        <is>
+          <t>taught</t>
+        </is>
+      </c>
+      <c r="AIJ1" s="1" t="inlineStr">
+        <is>
+          <t>telephone</t>
+        </is>
+      </c>
+      <c r="AIK1" s="1" t="inlineStr">
+        <is>
+          <t>tool</t>
+        </is>
+      </c>
+      <c r="AIL1" s="1" t="inlineStr">
+        <is>
+          <t>twelve</t>
+        </is>
+      </c>
+      <c r="AIM1" s="1" t="inlineStr">
+        <is>
+          <t>10-factor</t>
+        </is>
+      </c>
+      <c r="AIN1" s="1" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="AIO1" s="1" t="inlineStr">
+        <is>
+          <t>academics</t>
+        </is>
+      </c>
+      <c r="AIP1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="AIQ1" s="1" t="inlineStr">
+        <is>
+          <t>gaining</t>
+        </is>
+      </c>
+      <c r="AIR1" s="1" t="inlineStr">
+        <is>
+          <t>brought</t>
+        </is>
+      </c>
+      <c r="AIS1" s="1" t="inlineStr">
+        <is>
+          <t>campus</t>
+        </is>
+      </c>
+      <c r="AIT1" s="1" t="inlineStr">
+        <is>
+          <t>campuses</t>
+        </is>
+      </c>
+      <c r="AIU1" s="1" t="inlineStr">
+        <is>
+          <t>caring</t>
+        </is>
+      </c>
+      <c r="AIV1" s="1" t="inlineStr">
+        <is>
+          <t>attended</t>
+        </is>
+      </c>
+      <c r="AIW1" s="1" t="inlineStr">
+        <is>
+          <t>collect</t>
+        </is>
+      </c>
+      <c r="AIX1" s="1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
+      <c r="AIY1" s="1" t="inlineStr">
+        <is>
+          <t>confirmation</t>
+        </is>
+      </c>
+      <c r="AIZ1" s="1" t="inlineStr">
+        <is>
+          <t>discern</t>
+        </is>
+      </c>
+      <c r="AJA1" s="1" t="inlineStr">
+        <is>
+          <t>discover</t>
+        </is>
+      </c>
+      <c r="AJB1" s="1" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>arts</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
+      <c r="AJC1" s="1" t="inlineStr">
+        <is>
+          <t>ascertain</t>
+        </is>
+      </c>
+      <c r="AJD1" s="1" t="inlineStr">
         <is>
           <t>employed</t>
         </is>
       </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>came</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>exceeded</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>scored</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>collect</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>subjects</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>intercorrelations</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>8th</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>independently</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>especially</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>cases</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
+      <c r="AJE1" s="1" t="inlineStr">
         <is>
           <t>events</t>
         </is>
       </c>
-      <c r="AHT1" s="1" t="inlineStr">
-        <is>
-          <t>emerged</t>
-        </is>
-      </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>differential</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
+      <c r="AJF1" s="1" t="inlineStr">
+        <is>
+          <t>expert</t>
+        </is>
+      </c>
+      <c r="AJG1" s="1" t="inlineStr">
+        <is>
+          <t>finding</t>
+        </is>
+      </c>
+      <c r="AJH1" s="1" t="inlineStr">
+        <is>
+          <t>friends</t>
+        </is>
+      </c>
+      <c r="AJI1" s="1" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AJJ1" s="1" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="AJK1" s="1" t="inlineStr">
         <is>
           <t>accomplishment</t>
         </is>
       </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrate</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
+      <c r="AJL1" s="1" t="inlineStr">
+        <is>
+          <t>recommendations</t>
+        </is>
+      </c>
+      <c r="AJM1" s="1" t="inlineStr">
+        <is>
+          <t>resulting</t>
+        </is>
+      </c>
+      <c r="AJN1" s="1" t="inlineStr">
+        <is>
+          <t>revision</t>
+        </is>
+      </c>
+      <c r="AJO1" s="1" t="inlineStr">
+        <is>
+          <t>rotation</t>
+        </is>
+      </c>
+      <c r="AJP1" s="1" t="inlineStr">
+        <is>
+          <t>selected</t>
+        </is>
+      </c>
+      <c r="AJQ1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="AJR1" s="1" t="inlineStr">
+        <is>
+          <t>sparse</t>
+        </is>
+      </c>
+      <c r="AJS1" s="1" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="AJT1" s="1" t="inlineStr">
+        <is>
+          <t>suggested</t>
+        </is>
+      </c>
+      <c r="AJU1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="AJV1" s="1" t="inlineStr">
         <is>
           <t>validation-study</t>
         </is>
       </c>
-      <c r="AHY1" s="1" t="inlineStr">
+      <c r="AJW1" s="1" t="inlineStr">
         <is>
           <t>varimax</t>
         </is>
       </c>
-      <c r="AHZ1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="AIA1" s="1" t="inlineStr">
-        <is>
-          <t>useful</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>enrolled</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
+      <c r="AJX1" s="1" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="AJY1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="AJZ1" s="1" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="AKA1" s="1" t="inlineStr">
+        <is>
+          <t>criteria</t>
+        </is>
+      </c>
+      <c r="AKB1" s="1" t="inlineStr">
+        <is>
+          <t>designated</t>
+        </is>
+      </c>
+      <c r="AKC1" s="1" t="inlineStr">
+        <is>
+          <t>despite</t>
+        </is>
+      </c>
+      <c r="AKD1" s="1" t="inlineStr">
+        <is>
+          <t>requires</t>
+        </is>
+      </c>
+      <c r="AKE1" s="1" t="inlineStr">
+        <is>
+          <t>predictors</t>
+        </is>
+      </c>
+      <c r="AKF1" s="1" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="AKG1" s="1" t="inlineStr">
+        <is>
+          <t>predict</t>
+        </is>
+      </c>
+      <c r="AKH1" s="1" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
+      <c r="AKI1" s="1" t="inlineStr">
+        <is>
+          <t>cognitive</t>
+        </is>
+      </c>
+      <c r="AKJ1" s="1" t="inlineStr">
+        <is>
+          <t>commitment</t>
+        </is>
+      </c>
+      <c r="AKK1" s="1" t="inlineStr">
+        <is>
+          <t>conventional</t>
+        </is>
+      </c>
+      <c r="AKL1" s="1" t="inlineStr">
+        <is>
+          <t>counseling</t>
+        </is>
+      </c>
+      <c r="AKM1" s="1" t="inlineStr">
+        <is>
+          <t>extracting</t>
+        </is>
+      </c>
+      <c r="AKN1" s="1" t="inlineStr">
+        <is>
+          <t>factors</t>
+        </is>
+      </c>
+      <c r="AKO1" s="1" t="inlineStr">
+        <is>
+          <t>guidance</t>
+        </is>
+      </c>
+      <c r="AKP1" s="1" t="inlineStr">
+        <is>
+          <t>hypothesized</t>
+        </is>
+      </c>
+      <c r="AKQ1" s="1" t="inlineStr">
+        <is>
+          <t>junior/senior</t>
+        </is>
+      </c>
+      <c r="AKR1" s="1" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="AKS1" s="1" t="inlineStr">
+        <is>
+          <t>beyond</t>
+        </is>
+      </c>
+      <c r="AKT1" s="1" t="inlineStr">
+        <is>
+          <t>maximum</t>
+        </is>
+      </c>
+      <c r="AKU1" s="1" t="inlineStr">
         <is>
           <t>outcomes</t>
         </is>
       </c>
-      <c r="AID1" s="1" t="inlineStr">
-        <is>
-          <t>attributes</t>
-        </is>
-      </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>confirmation</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>commitment</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>maximum</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
+      <c r="AKV1" s="1" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="AKW1" s="1" t="inlineStr">
+        <is>
+          <t>persistence</t>
+        </is>
+      </c>
+      <c r="AKX1" s="1" t="inlineStr">
+        <is>
+          <t>personal-social</t>
+        </is>
+      </c>
+      <c r="AKY1" s="1" t="inlineStr">
         <is>
           <t>life</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>difficulties</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>junior/senior</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>conventional</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>counseling</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>discern</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>hypothesized</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>extracting</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>discover</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>revision</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>factors</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>sparse</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>confidence</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>selected</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>rotation</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>resulting</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>persistence</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>requires</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>recommendations</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>predictors</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>predict</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>personal-social</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>responded</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>10-factor</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>al.</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>change</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>rated</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>judgments</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>saw</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>ingels</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>purdue</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>principles</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>phenomenology</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>participate</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>academics</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>lives</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>ascertain</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>little</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>commonly</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>held</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>isolation</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>since</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>something</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>twelve</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>behavioral-adjustment</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>beliefs</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>934</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>self-reported</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
-        <is>
-          <t>profound</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>tool</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>stood</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>nels</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>nces</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>telephone</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>taught</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>k-7</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>attended</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>gaining</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>friends</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>flexibility</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>nine</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>manifested</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>criteria</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>designated</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
-          <t>despite</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>gains</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>tended</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>hypothetical</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
-          <t>expert</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>increases</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>independent</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>originality</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>previously</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>unusual</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>statistics</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>tear-hers</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>brought</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>contrary</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>socioaffective</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>back</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>beyond</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>sex-differences</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>finding</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>fewer</t>
-        </is>
-      </c>
-      <c r="AMH1" s="1" t="inlineStr">
-        <is>
-          <t>reproducibility</t>
-        </is>
-      </c>
-      <c r="AMI1" s="1" t="inlineStr">
-        <is>
-          <t>overrepresentation</t>
-        </is>
-      </c>
-      <c r="AMJ1" s="1" t="inlineStr">
-        <is>
-          <t>regardless</t>
-        </is>
-      </c>
-      <c r="AMK1" s="1" t="inlineStr">
-        <is>
-          <t>campus</t>
-        </is>
-      </c>
-      <c r="AML1" s="1" t="inlineStr">
-        <is>
-          <t>campuses</t>
-        </is>
-      </c>
-      <c r="AMM1" s="1" t="inlineStr">
-        <is>
-          <t>pnfs</t>
-        </is>
-      </c>
-      <c r="AMN1" s="1" t="inlineStr">
-        <is>
-          <t>pnf</t>
-        </is>
-      </c>
-      <c r="AMO1" s="1" t="inlineStr">
-        <is>
-          <t>caring</t>
-        </is>
-      </c>
-      <c r="AMP1" s="1" t="inlineStr">
-        <is>
-          <t>et</t>
-        </is>
-      </c>
-      <c r="AMQ1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
         </is>
       </c>
     </row>
@@ -5597,100 +5377,100 @@
         <v>1993</v>
       </c>
       <c r="D2" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="E2" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9700000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9600000000000002</v>
+        <v>1.07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="I2" t="n">
         <v>0.9400000000000002</v>
       </c>
       <c r="J2" t="n">
+        <v>0.9200000000000002</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.86</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.7900000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="M2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.7</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>0.6900000000000001</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="Q2" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.6600000000000001</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.64</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.62</v>
-      </c>
       <c r="V2" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.6100000000000001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.61</v>
       </c>
       <c r="X2" t="n">
         <v>0.61</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.55</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.53</v>
@@ -5699,25 +5479,25 @@
         <v>0.53</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="AM2" t="n">
         <v>0.52</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AS2" t="n">
         <v>0.48</v>
@@ -5732,19 +5512,19 @@
         <v>0.48</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="BB2" t="n">
         <v>0.43</v>
@@ -5759,13 +5539,13 @@
         <v>0.43</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BI2" t="n">
         <v>0.42</v>
@@ -5774,13 +5554,13 @@
         <v>0.42</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BN2" t="n">
         <v>0.41</v>
@@ -5789,16 +5569,16 @@
         <v>0.41</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BT2" t="n">
         <v>0.4</v>
@@ -5807,10 +5587,10 @@
         <v>0.4</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BX2" t="n">
         <v>0.39</v>
@@ -5819,28 +5599,28 @@
         <v>0.39</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CH2" t="n">
         <v>0.36</v>
@@ -5867,34 +5647,34 @@
         <v>0.36</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CZ2" t="n">
         <v>0.34</v>
@@ -5924,16 +5704,16 @@
         <v>0.33</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="DM2" t="n">
         <v>0.32</v>
@@ -5954,7 +5734,7 @@
         <v>0.32</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="DT2" t="n">
         <v>0.31</v>
@@ -5975,97 +5755,97 @@
         <v>0.31</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="FE2" t="n">
         <v>0.27</v>
@@ -6074,49 +5854,49 @@
         <v>0.27</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FV2" t="n">
         <v>0.26</v>
@@ -6143,166 +5923,166 @@
         <v>0.26</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="IF2" t="n">
         <v>0.21</v>
@@ -6311,25 +6091,25 @@
         <v>0.21</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="II2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="IO2" t="n">
         <v>0.2</v>
@@ -6374,43 +6154,43 @@
         <v>0.2</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="JP2" t="n">
         <v>0.19</v>
@@ -6440,40 +6220,40 @@
         <v>0.19</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="KK2" t="n">
         <v>0.18</v>
@@ -6509,58 +6289,58 @@
         <v>0.18</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="LN2" t="n">
         <v>0.17</v>
@@ -6623,52 +6403,52 @@
         <v>0.17</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MX2" t="n">
         <v>0.16</v>
@@ -6713,43 +6493,43 @@
         <v>0.16</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NY2" t="n">
         <v>0.15</v>
@@ -6833,31 +6613,31 @@
         <v>0.15</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PI2" t="n">
         <v>0.14</v>
@@ -6944,142 +6724,142 @@
         <v>0.14</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SE2" t="n">
         <v>0.12</v>
@@ -7256,91 +7036,91 @@
         <v>0.12</v>
       </c>
       <c r="UK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="US2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VN2" t="n">
         <v>0.11</v>
@@ -7547,19 +7327,19 @@
         <v>0.11</v>
       </c>
       <c r="YD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="YE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="YF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="YG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="YH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="YI2" t="n">
         <v>0.1</v>
@@ -7613,103 +7393,103 @@
         <v>0.1</v>
       </c>
       <c r="YZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AAA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AAB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AAC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AAD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AAE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AAF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AAG2" t="n">
         <v>0.09</v>
@@ -8225,43 +8005,43 @@
         <v>0.09</v>
       </c>
       <c r="AGV2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AGW2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AGX2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AGY2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AGZ2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHA2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHC2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHD2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHE2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHF2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHG2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHH2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AHI2" t="n">
         <v>0.08</v>
@@ -8546,138 +8326,6 @@
         <v>0.08</v>
       </c>
       <c r="AKY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALS2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AML2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMQ2" t="n">
         <v>0.08</v>
       </c>
     </row>
